--- a/biology/Botanique/Anthyllis/Anthyllis.xlsx
+++ b/biology/Botanique/Anthyllis/Anthyllis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre botanique Anthyllis, dont les équivalents vernaculaires sont anthyllide ou vulnéraire (ce dernier terme étant surtout réservé à l'espèce Anthyllis vulneraria), regroupe des plantes de la famille des Fabacées (ou Légumineuses), le plus souvent méridionales et/ou montagnardes, certaines espèces étant uniquement méditerranéennes. 
 Ces plantes ressemblent à de gros trèfles, par leurs fleurs groupées en racèmes à l'apparence de capitules, mais elles s'en distinguent par leurs feuilles imparipennées, parfois à folioles très nombreuses (Anthyllis montana). Les inflorescences sont dans certaines espèces entourées de deux grandes bractées palmées à nombreux segments. Le calice des fleurs, souvent enflé, est velu, presque toujours entouré d'un duvet blanchâtre qui pourrait être à l'origine du nom donné au genre (grec anthos = fleur + ioulos = duvet selon certains auteurs). La corolle est papilionacée, avec un étendard égalant les ailes et la carène ; les ailes adhèrent à la carène par leur limbe ; la carène est obtuse ou à peine prolongée en bec. Le fruit est une gousse à une ou deux graines renfermée dans le tube du calice.
@@ -512,7 +524,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthyllis barba-jovis L.
 Anthyllis cytisoides L.
